--- a/Post/Index/data/Result - Detected Missing.xlsx
+++ b/Post/Index/data/Result - Detected Missing.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93964</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93972</v>
+        <v>8691</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Result - Detected Missing.xlsx
+++ b/Post/Index/data/Result - Detected Missing.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3070</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8691</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Result - Detected Missing.xlsx
+++ b/Post/Index/data/Result - Detected Missing.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2785</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
